--- a/testdata/LoginData.xlsx
+++ b/testdata/LoginData.xlsx
@@ -1,27 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\cucumberproject\testdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA2F1F5-1E60-4C0C-B07E-D8D5BF07627C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -42,8 +39,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,27 +420,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,7 +448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -459,7 +456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -467,7 +464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -475,7 +472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -483,7 +480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -493,13 +490,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" display="test@123"/>
-    <hyperlink ref="A6" r:id="rId2" display="abc123@gmail.com"/>
-    <hyperlink ref="B2" r:id="rId3" display="test@123"/>
-    <hyperlink ref="A5" r:id="rId4" display="laks@yahoo.com"/>
-    <hyperlink ref="A3" r:id="rId5" display="lakshmi@yahoo.com"/>
-    <hyperlink ref="A4" r:id="rId6" display="laksh@yahoo.com"/>
-    <hyperlink ref="A2" r:id="rId7" display="pavanoltraining@gmail.com"/>
+    <hyperlink ref="B6" r:id="rId1" display="test@123" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A6" r:id="rId2" display="abc123@gmail.com" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B2" r:id="rId3" display="test@123" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A5" r:id="rId4" display="laks@yahoo.com" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A3" r:id="rId5" display="lakshmi@yahoo.com" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A4" r:id="rId6" display="laksh@yahoo.com" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A2" r:id="rId7" display="pavanoltraining@gmail.com" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
